--- a/braph2/atlases/desikan_atlas.xlsx
+++ b/braph2/atlases/desikan_atlas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anna.canal.garcia/Documents/PhD/BRAPH 2.0/Braph2_atlases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8095EC16-2702-3945-BAF0-694BD2B73E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{EC51EDDD-7025-4736-BFBE-9BF48F4D0BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{53F1491C-2266-40BE-8E06-EECB9DC7F43D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="desikan_atlas" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
   <si>
+    <t>Desikan_Freesurfer_v5.1</t>
+  </si>
+  <si>
     <t>Desikan Label</t>
   </si>
   <si>
@@ -346,9 +349,6 @@
   </si>
   <si>
     <t>right</t>
-  </si>
-  <si>
-    <t>Desikan_Freesurfer</t>
   </si>
 </sst>
 </file>
@@ -711,44 +711,45 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.0546875" customWidth="1"/>
+    <col min="3" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>-12.6</v>
@@ -760,15 +761,15 @@
         <v>42.4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>-8.6</v>
@@ -780,15 +781,15 @@
         <v>-8.6999999999999993</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>-31.3</v>
@@ -800,15 +801,15 @@
         <v>16.5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>-34.6</v>
@@ -820,15 +821,15 @@
         <v>42.8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>-41</v>
@@ -840,15 +841,15 @@
         <v>-11.1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>-24</v>
@@ -860,15 +861,15 @@
         <v>-14.4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>-42.4</v>
@@ -880,15 +881,15 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>-44.6</v>
@@ -900,15 +901,15 @@
         <v>13.1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>-8</v>
@@ -920,15 +921,15 @@
         <v>-14.9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>-6.8</v>
@@ -940,15 +941,15 @@
         <v>1.6</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>-6.6</v>
@@ -960,15 +961,15 @@
         <v>26.1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>-34.200000000000003</v>
@@ -980,15 +981,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>-37.799999999999997</v>
@@ -1000,15 +1001,15 @@
         <v>42.1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>-42.3</v>
@@ -1020,15 +1021,15 @@
         <v>43.6</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>-50.4</v>
@@ -1040,15 +1041,15 @@
         <v>31</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>-22.8</v>
@@ -1060,15 +1061,15 @@
         <v>46.3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>-40</v>
@@ -1080,15 +1081,15 @@
         <v>27.3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>-10</v>
@@ -1100,15 +1101,15 @@
         <v>56.1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>-7.3</v>
@@ -1120,15 +1121,15 @@
         <v>35.700000000000003</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>-9.8000000000000007</v>
@@ -1140,15 +1141,15 @@
         <v>16.899999999999999</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>-11.6</v>
@@ -1160,15 +1161,15 @@
         <v>36.700000000000003</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>-8.6999999999999993</v>
@@ -1180,15 +1181,15 @@
         <v>18</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>-13.9</v>
@@ -1200,15 +1201,15 @@
         <v>6</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>-16.5</v>
@@ -1220,15 +1221,15 @@
         <v>-4.3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>-29.7</v>
@@ -1240,15 +1241,15 @@
         <v>-1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>-44</v>
@@ -1260,15 +1261,15 @@
         <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>-52.7</v>
@@ -1280,15 +1281,15 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>-52.1</v>
@@ -1300,15 +1301,15 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>-55.6</v>
@@ -1320,15 +1321,15 @@
         <v>-12.9</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>-48.9</v>
@@ -1340,15 +1341,15 @@
         <v>-22.2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>-32.799999999999997</v>
@@ -1360,15 +1361,15 @@
         <v>-34.799999999999997</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36">
         <v>-25.8</v>
@@ -1380,15 +1381,15 @@
         <v>-31.6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>-24.7</v>
@@ -1400,15 +1401,15 @@
         <v>-17.399999999999999</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>-35.700000000000003</v>
@@ -1420,15 +1421,15 @@
         <v>-19.7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>13.4</v>
@@ -1440,15 +1441,15 @@
         <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>10.3</v>
@@ -1460,15 +1461,15 @@
         <v>-10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C41">
         <v>7.3</v>
@@ -1480,15 +1481,15 @@
         <v>26.3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>34.9</v>
@@ -1500,15 +1501,15 @@
         <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>42.1</v>
@@ -1520,15 +1521,15 @@
         <v>-10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>23.6</v>
@@ -1540,15 +1541,15 @@
         <v>-15.2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -1560,15 +1561,15 @@
         <v>4.5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>44.9</v>
@@ -1580,15 +1581,15 @@
         <v>14.2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>8.8000000000000007</v>
@@ -1600,15 +1601,15 @@
         <v>-14.8</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>32.299999999999997</v>
@@ -1620,15 +1621,15 @@
         <v>17.3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -1640,15 +1641,15 @@
         <v>2.1</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>35.1</v>
@@ -1660,15 +1661,15 @@
         <v>2.4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51">
         <v>36.799999999999997</v>
@@ -1680,15 +1681,15 @@
         <v>43.5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>41.6</v>
@@ -1700,15 +1701,15 @@
         <v>43.8</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53">
         <v>50.6</v>
@@ -1720,15 +1721,15 @@
         <v>30.7</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>22.6</v>
@@ -1740,15 +1741,15 @@
         <v>48.1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C55">
         <v>42.8</v>
@@ -1760,15 +1761,15 @@
         <v>28.1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56">
         <v>9.9</v>
@@ -1780,15 +1781,15 @@
         <v>55.6</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57">
         <v>7.6</v>
@@ -1800,15 +1801,15 @@
         <v>36.200000000000003</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C58">
         <v>8.9</v>
@@ -1820,15 +1821,15 @@
         <v>17.600000000000001</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C59">
         <v>11.7</v>
@@ -1840,15 +1841,15 @@
         <v>37.700000000000003</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C60">
         <v>8.6999999999999993</v>
@@ -1860,15 +1861,15 @@
         <v>19</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C61">
         <v>14</v>
@@ -1880,15 +1881,15 @@
         <v>6.7</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C62">
         <v>16.8</v>
@@ -1900,15 +1901,15 @@
         <v>-3.6</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C63">
         <v>30.3</v>
@@ -1920,15 +1921,15 @@
         <v>0.5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64">
         <v>44.8</v>
@@ -1940,15 +1941,15 @@
         <v>6.5</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>51.9</v>
@@ -1960,15 +1961,15 @@
         <v>5.6</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66">
         <v>53</v>
@@ -1980,15 +1981,15 @@
         <v>-5.5</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67">
         <v>55.9</v>
@@ -2000,15 +2001,15 @@
         <v>-12.9</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68">
         <v>49.3</v>
@@ -2020,15 +2021,15 @@
         <v>-23</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69">
         <v>34</v>
@@ -2040,15 +2041,15 @@
         <v>-33.1</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>26.2</v>
@@ -2060,15 +2061,15 @@
         <v>-31.9</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>26.1</v>
@@ -2080,15 +2081,15 @@
         <v>-16.2</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>35.9</v>
@@ -2100,7 +2101,7 @@
         <v>-19.2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
